--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\Enchipsdatorer\IMS_Mower\Logbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C59C8-7309-41DA-9BAF-83561B24F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Work related to project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Initial meeting with project group</t>
+  </si>
+  <si>
+    <t>Brought home the robot, identified and studied the datasheets of the
+components</t>
+  </si>
+  <si>
+    <t>Meeting with the group, discussed work-structure and how to divide
+responsibilities</t>
+  </si>
+  <si>
+    <t>Bought adapter for micro-USB to USB-A as well as a SD-card reader. Both
+intended for use with the raspberry pi zero w.</t>
+  </si>
+  <si>
+    <t>Built the robot.</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Conducted practical tests that confirmed that the code worked as intended.</t>
+  </si>
+  <si>
+    <t>Meeting with the other members working with the hardware. Discussed our 
+dependencies and how to tackle the different requirements of the project. Also demonstrated the code I had written and the autonomous movements of the robot.</t>
+  </si>
+  <si>
+    <t>Meeting with the entire project team. Presented our dependencies and
+discussed how to prioritize work going forward. Brief walkthrough of how 
+we should be using version control.</t>
+  </si>
+  <si>
+    <t>Wrote code for the functionality that makes the robot move autonomously inside a limited area. The area was limited by black tape which the robot is instructed to avoid. Also made the robot turn if it encountered an obstacle. Additionally, wrote code to gather data from the built in gyroscope on the robot. This could be used for the directional information that need to be sent to the backend.</t>
+  </si>
+  <si>
+    <t>Investigated different functions in the Makeblock library, specifically functions that make the engines turn a specified amount of degrees. This could be used to define the robots speed.</t>
+  </si>
+  <si>
+    <t>Found and shared an existing libray for Makeblock products. Many functions can be used for control of the robot.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +144,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +445,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44648</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44650</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44651</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44653</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44654</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44655</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44656</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>44657</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44658</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>44659</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44660</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>44667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>44668</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>44683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>44684</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44686</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>44689</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\Enchipsdatorer\IMS_Mower\Logbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5C59C8-7309-41DA-9BAF-83561B24F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC73113-1318-459C-910F-DE1EF2DA727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>Conducted practical tests that confirmed that the code worked as intended.</t>
-  </si>
-  <si>
-    <t>Meeting with the other members working with the hardware. Discussed our 
-dependencies and how to tackle the different requirements of the project. Also demonstrated the code I had written and the autonomous movements of the robot.</t>
   </si>
   <si>
     <t>Meeting with the entire project team. Presented our dependencies and
@@ -88,6 +84,42 @@
   </si>
   <si>
     <t>Found and shared an existing libray for Makeblock products. Many functions can be used for control of the robot.</t>
+  </si>
+  <si>
+    <t>Meeting with the other members working with the hardware. Discussed our dependencies and how to tackle the different requirements of the project. Also demonstrated the code I had written and the autonomous movements of the robot.</t>
+  </si>
+  <si>
+    <t>Setup automatic Wi-fi connection from rpi to mobile hotspot on boot as well as giving the rpi a static ip-address making ssh connection super easy.</t>
+  </si>
+  <si>
+    <t>Confirmed serial communication through USB between rpi and arduino Mega 2560. A simple python script on the rpi receiving and validating messages sent from the arduino.</t>
+  </si>
+  <si>
+    <t>Confirmed the camera functioning together with the rpi. Combined the code for the camera with the previous code testing serial communication. Now, when the robot detects a obstacle it sends a flag to the rpi which captures and saves a picture.</t>
+  </si>
+  <si>
+    <t>Standup followed by a short meeting with the other people in the hardware group, discussed the upcoming week.</t>
+  </si>
+  <si>
+    <t>Updated the code for the rpi, creates a separate thread where the positional calculations are made whilst the main thread awaits serial input from the arduino regarding its current state. 
+Edited arduino code to send updates regarding its state to the rpi over the serial communications. Arduino also awaits a acknowledgemen-message before continuing to make sure everything is properly synched.
+Also made a new proposal for the state-machine controling auto-drive.</t>
+  </si>
+  <si>
+    <t>Experimented with the speed of the robot, no clear results. At current config the bot moves at about 0.254m/s. It is not moving in a straight line though, maybe something that could be fixed with the help of the gyroscope in the future?</t>
+  </si>
+  <si>
+    <t>Meeting with the hardware-group. Discussed our plans for the week and spoke about how to implement the bluetooth functionality in the arduino.</t>
+  </si>
+  <si>
+    <t>Studied ways of speeding up serial communication. One possible simple solution could be to increase the baudrate to 115200 bits/sec. Another could be to send as little data as possible each time, reducing the messages to just a few bits.</t>
+  </si>
+  <si>
+    <t>Met up with Eddie and configured the Raspberry to make connection possible. Wrote a simple python-script that could read and send serial data between the connection. 
+Had a discussion with members of another team regarding the speed of the serial connection, they had experienced slow speeds at times, something to look out for.</t>
+  </si>
+  <si>
+    <t>Studied the schematics of the Arduino Mega 2560 that the MeAuriga we have is based on. Noticed that the USB and Bluetooth share Tx and Rx which means that we will have to use the raspberry for Bluetooth. Notified the team about this in Discord and we had a meeting regarding this matter. Me and Eddie will meet up tomorrow and work with the Raspberry.</t>
   </si>
 </sst>
 </file>
@@ -144,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -165,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +510,7 @@
       <c r="A3" s="4">
         <v>44648</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -483,6 +518,7 @@
       <c r="A4" s="4">
         <v>44649</v>
       </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -503,7 +539,7 @@
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -525,7 +561,7 @@
     <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -539,223 +575,268 @@
         <v>44654</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
         <v>44655</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>44656</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>44656</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
         <v>44657</v>
       </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
         <v>44658</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="B19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>44659</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <v>44660</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>44661</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>44662</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="B26" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
         <v>44663</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>44664</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
         <v>44665</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
         <v>44666</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>44667</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
         <v>44668</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>44670</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <v>44671</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <v>44672</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <v>44673</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <v>44674</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>44675</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>44676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>44677</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <v>44678</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
-        <v>44679</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
-        <v>44680</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
-        <v>44681</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>44682</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
-        <v>44683</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
-        <v>44684</v>
-      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
-        <v>44685</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <v>44686</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <v>44687</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <v>44688</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>44688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>44689</v>
       </c>
     </row>

--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC73113-1318-459C-910F-DE1EF2DA727E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C20D3-0F66-40EF-8724-DDA4A8009904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,33 @@
   </si>
   <si>
     <t>Studied the schematics of the Arduino Mega 2560 that the MeAuriga we have is based on. Noticed that the USB and Bluetooth share Tx and Rx which means that we will have to use the raspberry for Bluetooth. Notified the team about this in Discord and we had a meeting regarding this matter. Me and Eddie will meet up tomorrow and work with the Raspberry.</t>
+  </si>
+  <si>
+    <t>Brief meeting with the hardware-crew regarding what we had done during the week. Reviewed Eddies code and showed everyone how we should work with branches and pullrequests.</t>
+  </si>
+  <si>
+    <t>Discussed positioning with Kiro. Explained how my solution worked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short talk with Kiro reviewing and discussing the code he had written. Followed by a Stand-up meeting with the entire group. </t>
+  </si>
+  <si>
+    <t>Meeting with the hardware-crew plus Dejan. Discussed how the communication between units (rpi, arduino, app) will work.</t>
+  </si>
+  <si>
+    <t>Sprint-planning with the project group.</t>
+  </si>
+  <si>
+    <t>Met with Eddie at school and tried out the bluetooth connection to the application. Did not work. Looked for other solutions, landed on a Bluetooth classic solution where a server socket is created on the rpi. Had a chat with Micke from the frontend, we will meet up tomorrow to further develop our bluetooth solution.</t>
+  </si>
+  <si>
+    <t>Met with Eddie and Micke in school. Had some tech-trouble with the rpi so installed a new raspianOS on a separate SD-card. Confirmed connection between their app and the rpi with Bluetooth classic.</t>
+  </si>
+  <si>
+    <t>Meeting with the entire group. Discussed what we should be doing going forward. Gave the Rpi to Kiro as he and a member of the front-end team wanted to work with it over the weekend.</t>
+  </si>
+  <si>
+    <t>I finished writing the code for the rpi-controls. It should now be able to receive messages from a bluetooth client socket and through that control the Robots state-machine as well as listening to the robots actions during autonomous driving. Also calculating the position when moving forward. Need to do some testing to make sure that it works as intended during next week.</t>
   </si>
 </sst>
 </file>
@@ -483,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,79 +743,106 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44669</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44670</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44671</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>44672</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>44673</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44674</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>44675</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44676</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44677</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44678</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44679</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44680</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44681</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">

--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\Enchipsdatorer\IMS_Mower\Logbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53C20D3-0F66-40EF-8724-DDA4A8009904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCECD8E-5F5A-4554-8818-723D8FC05C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="2055" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>I finished writing the code for the rpi-controls. It should now be able to receive messages from a bluetooth client socket and through that control the Robots state-machine as well as listening to the robots actions during autonomous driving. Also calculating the position when moving forward. Need to do some testing to make sure that it works as intended during next week.</t>
+  </si>
+  <si>
+    <t>Sprint planning with the team, our goal will be to test all communications between app -&gt; rpi &lt;-&gt; mower</t>
+  </si>
+  <si>
+    <t>Meeting where we discussed what we had done during the week and some group-ethics. Khaleel is going to work on the bluetooth over the weekend on a separate rpi4. I supplied him with adequate code and setup for the rpi so that he can perform relevant testing on his own.</t>
+  </si>
+  <si>
+    <t>Had a chat with Khaleel regarding the bluetooth functionality. He was able to connect to the rpi but the data seemed weird. Proposed to try sending a char instead of int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested the communications together. Noticed that the gyroscope returned inaccurate values when turning. Solved this by updating its orientation continously as the mower is moving, not just when it has performed a turn. App did not establish a connection but the autonomous driving is performed correctly with comms between mower and rpi and its position is calculated. What remains is to send the data to the backend. </t>
   </si>
 </sst>
 </file>
@@ -510,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,9 +871,12 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44683</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,19 +889,28 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44686</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44687</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>44688</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">

--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myran\Desktop\Enchipsdatorer\IMS_Mower\Logbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1f818bd68834fc5/Skrivbord/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCECD8E-5F5A-4554-8818-723D8FC05C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{004C3345-4821-44A4-B134-F9EC25828E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD6620A-5B64-4534-A747-1D4B9C6B791B}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="2055" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -159,6 +159,84 @@
   </si>
   <si>
     <t xml:space="preserve">Tested the communications together. Noticed that the gyroscope returned inaccurate values when turning. Solved this by updating its orientation continously as the mower is moving, not just when it has performed a turn. App did not establish a connection but the autonomous driving is performed correctly with comms between mower and rpi and its position is calculated. What remains is to send the data to the backend. </t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting, discussed what the aims of the week was. We in hardware will focus on testing all existing functions, making sure that the communications work as intended and eliminate any found bugs.</t>
+  </si>
+  <si>
+    <t>Investigated and shared the filesize and resolution of the pictures currently being taken with Dejan from the backend team.</t>
+  </si>
+  <si>
+    <t>Performed testing in school with all components of the project. Found out that the reason we could not connect to the rpi from Eddies phone was because the app performed a permission check for a higher SDK version, by hardcoding it to "TRUE" we could start testing the manual controls. The manual controls worked perfectly, after some minor changes in the code. Example: updating the current direction from a function, not by directly changing the position-class's instance variable.</t>
+  </si>
+  <si>
+    <t>Continued performing system tests. Encountered a problem where the change from manual -&gt; Automated worked fine but then changing from Auto -&gt; Manual caused unwanted execution. Placed a large amount of descriptive prints() in the python code for the rpi in an attempt to debug the code. Later discovered that the code was running in a 4-step cycle of "1.Manual -&gt; 2.Auto -&gt; 3.Manual -&gt; 4.Auto -&gt; 1.Manual..." Where the results were repeatedly "1.OK -&gt; 2.OK -&gt; 3.FAIL -&gt; 4.FAIL -&gt;1.OK...". After many hours of troubleshooting we managed to get the switches to work as intended when the mower either stood still or was moving forward in auto-mode. We temporarily pinpointed the problem to performing a turn.</t>
+  </si>
+  <si>
+    <t>Wrote the code nessecary to perform the previously mentioned steps above. The code for steps 2 and 3 were commented out so that it was ready when we prerform the tests later today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performed the tests with the code I had written before lunch. Steps 1 and 2 did not accomplish the task. Step 3 however, removing the "receiveAck" made the code work as intended. I would prefer to send acks between the components but currently have to prioritize the functionality of the mower. </t>
+  </si>
+  <si>
+    <t>Another problem occured. When changing from Auto to Manual there could still be some messages left in the rpi's serial input buffer. This caused errors when performing turns and possibly when changing from manual to auto again. We hoped to easily solve this by clearing the rpis serial input buffer but this was not the case. Instead we made a fix, once again with the "Make it work" in mind. By performing a check during the turn function in manual mode where unwanted messages are filtered out the mower now fulfills all criteria except one, which is the sending of the picture which will be tested next week since the backend were not ready for that yet.</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Aprox time spent on project</t>
+  </si>
+  <si>
+    <t>20h</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>13h</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>No testing today. Were continously thinking about how to fix the troubles with switching between auto and manual though. Reviewed the current code and put together three potential fixes. 
+1. Make some changes to the current if-case used when receiving the message to switch. Currently it was written strange.
+2. Since the mower could make the switches while running forward, only put the check in that state in the state-machine. This is not a preferred solution, only intended to fulfill "Make it work", "Make it right" comes afterward.
+3. The problem might not be linked to "moving forward" and "Turning". It could occur due to messages sent from the rpi to the mower being read in the wrong order, therefore causing synchronization trouble when one the rpi switches modes and the mower doesn't. If we remove the functions I created that catches Acknowledge messages from the rpi, the only message sent from rpi -&gt; mower is the "change mode message". By removing the "receiveAck"-function there can not be any missunderstanding between the components.</t>
+  </si>
+  <si>
+    <t>Aprox time spent</t>
+  </si>
+  <si>
+    <t>Added the python-request functions that was generated through postman. By just making minor changes to the input we were quickly ready to send POST-requests with both picture and position. Dejan from the backend team also came to school after a while to both give him a better view of the entirety of the project as well as assisting with the tests towards the backend from the rpi. Noticed a bug where there could be created several sessions from only one. We solved it from our side by moving around some code.</t>
+  </si>
+  <si>
+    <t>Meeitng with entire group, with sprint planning as focus. Discussed what to do during the week and which goals each group had.</t>
+  </si>
+  <si>
+    <t>Updated the python function used when sending a picture to the backend when collsiion has occurred. Prepared the code for tests that will be performed tomorrow.</t>
+  </si>
+  <si>
+    <t>Met up with others in school to test some more functionality. Helped Eddie update his function that makes the robot turn randomly if an obstacle is found / turn depending on which side the play area is detected on.</t>
+  </si>
+  <si>
+    <t>There were trouble sending the image from the rpi to the backend. Solved it by calling Dejan and working through it together. Made a quick cleanup in the python code, removed unnessecary prints previously used for debugging purposes as well ass comments not adding anything of value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with everyone, with current progress as focus. Described where everyone was at, and what needed to be done to finish the project. For us working with the hardware we still need to write documentation for the code. </t>
+  </si>
+  <si>
+    <t>Met up in school for a final systems test. An error occurred with the backend but it was caused by a request sent by the application, we were not involved. Although, by working together with Dejan from backend and Micke from frontend we could quickly identify and solve the problem together. Other then that, everything should now be working as intended and fulfill all the functional requirements. Also cleaned up the Arduino code, removed functions not being used and comments not adding any value.</t>
+  </si>
+  <si>
+    <t>Had a "Lessons learned" meeting where everyone got to present things that they thouhgt had been going well, as well as things that could have been improved. Afterwards everyone went through each point and discussed/elaborated if anything felt off or if further clarification was needed.</t>
+  </si>
+  <si>
+    <t>Wrote documentation for the functions used in the python code controlling the rpi, handling bluetooth connections and sending requests to the backend.</t>
   </si>
 </sst>
 </file>
@@ -215,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -239,6 +317,15 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,19 +607,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,12 +627,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>44648</v>
       </c>
@@ -553,13 +640,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>44649</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>44650</v>
       </c>
@@ -567,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>44651</v>
       </c>
@@ -575,13 +662,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>44652</v>
       </c>
@@ -589,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>44653</v>
       </c>
@@ -597,19 +684,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>44654</v>
       </c>
@@ -617,306 +704,543 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
         <v>44655</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
         <v>44656</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
         <v>44657</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
         <v>44658</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
         <v>44659</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="9">
         <v>44660</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="9"/>
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
         <v>44661</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>44662</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+    <row r="29" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="9">
         <v>44663</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+    <row r="30" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
         <v>44664</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="9">
         <v>44665</v>
       </c>
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
         <v>44666</v>
       </c>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="9">
         <v>44667</v>
       </c>
-      <c r="B31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
         <v>44668</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
         <v>44669</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
         <v>44670</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
         <v>44671</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
         <v>44672</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+    <row r="42" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
         <v>44673</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
         <v>44674</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4">
         <v>44675</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
         <v>44676</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4">
         <v>44677</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+    <row r="50" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
         <v>44678</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+    <row r="51" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
         <v>44679</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
         <v>44680</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+    <row r="53" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
         <v>44681</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
         <v>44682</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
         <v>44683</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="4">
         <v>44684</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
         <v>44685</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+    <row r="61" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="4">
         <v>44686</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+    <row r="62" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
         <v>44687</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+    <row r="63" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
         <v>44688</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
         <v>44689</v>
       </c>
+    </row>
+    <row r="65" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>44690</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="4"/>
+      <c r="B69" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>44691</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4"/>
+      <c r="B71" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>44692</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>44693</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>44694</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4"/>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>44695</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>44696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>44697</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="4"/>
+      <c r="B83" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>44698</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A85" s="4"/>
+      <c r="B85" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>44699</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>44700</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>44701</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
+++ b/Logbooks/Logbook Anton Ahlinder - ahan19tp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e1f818bd68834fc5/Skrivbord/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\IMS_Mower\Logbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{004C3345-4821-44A4-B134-F9EC25828E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BD6620A-5B64-4534-A747-1D4B9C6B791B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E602B61-E4CC-4AE8-9A39-E70FEEF62DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Wrote documentation for the functions used in the python code controlling the rpi, handling bluetooth connections and sending requests to the backend.</t>
+  </si>
+  <si>
+    <t>16h</t>
+  </si>
+  <si>
+    <t>Attended a meeting in preparation for the final submission, Discussed and assured that everything was finished and ready for submision. Discussed how to proceed with the presentation of the project. Merge the final code into main.</t>
   </si>
 </sst>
 </file>
@@ -609,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1226,9 +1232,12 @@
         <v>44702</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>44703</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -1236,7 +1245,7 @@
         <v>57</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
